--- a/excel formulas.xlsx
+++ b/excel formulas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CristianPC\Documents\School NorQuest\2024\Upskill Data Analysis and Business Intelligence\Data Analytics\Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CristianPC\Documents\GitHub\UDA_Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4336D9FB-2C23-4962-9523-2F539919C116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C4F053-3512-4970-BC29-9CEEB3B5A662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="25500" windowHeight="16935" tabRatio="870" xr2:uid="{07D732A0-D32C-4FA6-87F0-47C2257B816D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="870" xr2:uid="{07D732A0-D32C-4FA6-87F0-47C2257B816D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vlookup " sheetId="16" r:id="rId1"/>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="95">
   <si>
     <t>Product ID</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>days</t>
+  </si>
+  <si>
+    <t>For GitHub project this is the change</t>
   </si>
 </sst>
 </file>
@@ -1149,9 +1152,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4AFF1E-C232-479C-9795-6AB6E6E7EA6E}">
-  <dimension ref="B2:I12"/>
+  <dimension ref="B2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1380,6 +1385,11 @@
       </c>
       <c r="F12" s="12">
         <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1816,7 @@
       </c>
       <c r="B4" s="22">
         <f ca="1">TODAY()</f>
-        <v>45432</v>
+        <v>45438</v>
       </c>
       <c r="C4" s="22">
         <f>DATE(2024,5,16)</f>
@@ -1844,7 +1854,7 @@
       </c>
       <c r="B7" s="10">
         <f ca="1">DAY(TODAY())</f>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1853,7 +1863,7 @@
       </c>
       <c r="B9" s="22">
         <f ca="1">TODAY()</f>
-        <v>45432</v>
+        <v>45438</v>
       </c>
       <c r="C9" s="10">
         <f ca="1">DATEDIF($A$9,$B$9,"y")</f>
@@ -1875,7 +1885,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" s="10">
         <f ca="1">DATEDIF($A$9,$B$9,"d")</f>
-        <v>10544</v>
+        <v>10550</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>93</v>
